--- a/spreadsheets/Singed.xlsx
+++ b/spreadsheets/Singed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantan/projects/champs.gg/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F73DFF-6C3B-4B49-8451-67D8057A5D25}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23B0051-ACD8-1A42-936E-559DDADC1CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="615" windowWidth="21525" windowHeight="11820" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" activeTab="1" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="136">
   <si>
     <t>id</t>
   </si>
@@ -434,15 +434,6 @@
   </si>
   <si>
     <t>Mostly easy matchup. Seekers/tabi/both work wonders here vs his ghoul physical damage. Focus on dodging the E and Cage in this matchup. IF you get trapped in the cage, immediately ult because he will drop his full combo on you. You can right click the ground outside of the cage to force your champ to auto-attack the cage if you are having trouble clicking it to break it. If he summons the maiden in lane and pushes, you can actually fling the maiden into your tower to kill it quickly. Don't 1v1 him unless you can kill the maiden first or separate him from it by flinging him or it away. Don't stand in between him and the maiden because he gets bonus damage when it tags you. Rylais -&gt; Liandrys.</t>
-  </si>
-  <si>
-    <t>General rules: Always finish your 2 doran's rings + refill and boots 1 early on for your mana and hp sustain. I tend to go Liandrys vs beefier champs and rylais vs squishier champs. Their mobility should not matter that much since Singed applies Rylais slow in melee range anyways, and enemy champ mobility tends to be hindered more by ranged Rylais users. Focus on the cost of your item (Rylais vs Liandrys) and which one will give you more immediate benefit.</t>
-  </si>
-  <si>
-    <t>For example: If I am vs a champ where I am having trouble killing them, and the pace of the game is very fast and I need to leave lane and have immediate impact, I would rush Rylais. However, if the situation is the same except the pace of the game is very slow, I would rush Liandrys instead becaues Liandrys is much more valuable than Rylais if you can complete it. However, A full rylais for 2600 gold is better than haunting guise + blasting wand at 2350.</t>
-  </si>
-  <si>
-    <t>Late game: After Rylais + Liandrys + Protobelt combo, I tend to go items like Zhonyas, Morello, Visage, Banshees, Deadman's, Abyssal mask, depending on what I need during the game. Your last 3 items are always situational. You can also sell your protobelt in the extreme lategame and swap it for a hextech gunblade.  DO NOT rush gunblade. This is a bad noob trap.</t>
   </si>
   <si>
     <t>general comments</t>
@@ -927,19 +918,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FF1A3E-B1DC-4DEF-A1FF-05C516225EE7}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -950,7 +941,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -961,7 +952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -972,7 +963,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -983,7 +974,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -994,7 +985,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1005,7 +996,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,7 +1007,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
@@ -1027,7 +1018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1038,7 +1029,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1047,7 +1038,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>68</v>
       </c>
@@ -1058,18 +1049,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1094,21 +1085,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095CAD4B-6F75-45EC-9CCF-5590BB3785E1}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="182.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="182.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1119,7 +1110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1133,7 +1124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1147,7 +1138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1161,7 +1152,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1175,7 +1166,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1189,7 +1180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1203,7 +1194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1217,7 +1208,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1229,7 +1220,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1243,7 +1234,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1257,7 +1248,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1268,7 +1259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1279,7 +1270,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1290,7 +1281,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1301,7 +1292,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1312,7 +1303,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1323,7 +1314,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1334,7 +1325,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1345,7 +1336,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1356,7 +1347,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1367,7 +1358,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1378,7 +1369,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1389,7 +1380,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1400,7 +1391,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1411,7 +1402,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -1422,7 +1413,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1433,7 +1424,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -1444,7 +1435,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -1455,7 +1446,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -1466,7 +1457,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -1477,7 +1468,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -1488,7 +1479,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -1499,7 +1490,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -1510,7 +1501,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -1521,7 +1512,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -1532,7 +1523,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -1543,7 +1534,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -1554,7 +1545,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -1565,7 +1556,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -1576,7 +1567,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -1587,7 +1578,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -1598,7 +1589,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -1609,7 +1600,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -1620,7 +1611,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -1629,21 +1620,6 @@
       </c>
       <c r="C45" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
